--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/10/seed2/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.558</v>
+        <v>-11.5808</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.4351</v>
+        <v>-12.3894</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.5238</v>
+        <v>-12.4166</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.7181</v>
+        <v>-13.0331</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.721400000000003</v>
+        <v>-8.805900000000003</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.615500000000004</v>
+        <v>-8.462400000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.189499999999994</v>
+        <v>-8.055600000000002</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.418299999999999</v>
+        <v>-7.394099999999998</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.879900000000001</v>
+        <v>-7.785999999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.727899999999998</v>
+        <v>-7.712799999999996</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1335,7 +1335,7 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.3818</v>
+        <v>-10.3509</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.210599999999996</v>
+        <v>-8.251499999999997</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.9175</v>
+        <v>-8.0306</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1403,10 +1403,10 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.3297</v>
+        <v>-14.23199999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.215200000000003</v>
+        <v>-8.2514</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.5026</v>
+        <v>-12.7993</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.8985</v>
+        <v>-10.7612</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.858499999999999</v>
+        <v>-7.662499999999999</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-10.54720000000001</v>
+        <v>-10.62270000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.8998</v>
+        <v>-13.97339999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.080900000000005</v>
+        <v>-5.994400000000004</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-8.118500000000001</v>
+        <v>-8.091100000000003</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.1008</v>
+        <v>-11.20270000000001</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
